--- a/biology/Botanique/Platane_géant_de_Lamanon/Platane_géant_de_Lamanon.xlsx
+++ b/biology/Botanique/Platane_géant_de_Lamanon/Platane_géant_de_Lamanon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Platane_g%C3%A9ant_de_Lamanon</t>
+          <t>Platane_géant_de_Lamanon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le platane géant de Lamanon est un platane d'Orient, arbre remarquable situé à Lamanon dans les Bouches-du-Rhône.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Platane_g%C3%A9ant_de_Lamanon</t>
+          <t>Platane_géant_de_Lamanon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le platane géant de Lamanon se situe dans la commune de Lamanon, dans un champ, devant une maison, au bord de la route départementale D23.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Platane_g%C3%A9ant_de_Lamanon</t>
+          <t>Platane_géant_de_Lamanon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le platane géant de Lamanon est un Platanus orientalis ou platane d'orient. Il mesure environ 25 mètres de hauteur et sa frondaison s'étend sur 1 250 m2. Son tronc a une circonférence de 8 mètres. Il fait partie des Arbres remarquables de France. 
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Platane_g%C3%A9ant_de_Lamanon</t>
+          <t>Platane_géant_de_Lamanon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 26 février 1918, il est classé site et monument naturel de caractère artistique[réf. souhaitée]. Le jardin de ce platane est également inscrit depuis 1994 à l'inventaire général du patrimoine culturel[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 26 février 1918, il est classé site et monument naturel de caractère artistique[réf. souhaitée]. Le jardin de ce platane est également inscrit depuis 1994 à l'inventaire général du patrimoine culturel. 
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Platane_g%C3%A9ant_de_Lamanon</t>
+          <t>Platane_géant_de_Lamanon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a peu d'informations sur cet arbre, on dit qu'il a été planté au XVIe siècle par Catherine de Médicis, venue rendre visite à Nostradamus.
 </t>
